--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luonghoang/Documents/Project/Carvera Air ATC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luonghoang/Documents/Project/Carvera-Air-ATC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E829F27B-4E63-9E4D-9A88-691337C6F50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647D6C5-55BE-9543-8ED5-B84423213A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="29480" windowWidth="34560" windowHeight="20540" activeTab="1" xr2:uid="{E4CA21F5-D4A9-464D-9F3E-BA0012FF7D2B}"/>
+    <workbookView xWindow="2200" yWindow="29480" windowWidth="34560" windowHeight="20540" xr2:uid="{E4CA21F5-D4A9-464D-9F3E-BA0012FF7D2B}"/>
   </bookViews>
   <sheets>
     <sheet name="PartMaster" sheetId="3" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
     <sheet name="Revision History" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Part Number</t>
   </si>
   <si>
-    <t>Part Name</t>
-  </si>
-  <si>
     <t>Rev Used</t>
   </si>
   <si>
@@ -67,21 +64,9 @@
     <t>HW-4</t>
   </si>
   <si>
-    <t>HW-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Limit Switch </t>
   </si>
   <si>
-    <t>Bracket High Torque Gear</t>
-  </si>
-  <si>
-    <t>NPN Laser Photoelectric Diffusion Sensor</t>
-  </si>
-  <si>
-    <t>85T HTD5 Belt 425mm Length</t>
-  </si>
-  <si>
     <t>32T HTD5 Output Pulley 15mm Width</t>
   </si>
   <si>
@@ -130,15 +115,6 @@
     <t>https://www.amazon.com/dp/B0DLN1XD8S?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
   </si>
   <si>
-    <t>HW-6</t>
-  </si>
-  <si>
-    <t>ATC Magazine</t>
-  </si>
-  <si>
-    <t>STEP Files are in the folder, so it's up to you to decide. My own design is different, because the part I'm using difficult to find elsewhere (local to me).</t>
-  </si>
-  <si>
     <t>can 3D print</t>
   </si>
   <si>
@@ -148,13 +124,96 @@
     <t>amazon.com/dp/B0CSX86X15?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
   </si>
   <si>
-    <t>haven't tested</t>
-  </si>
-  <si>
-    <t>20:1 Stepper Motor</t>
-  </si>
-  <si>
     <t>HW-7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-KW12-3-Roller-Switch-Normally/dp/B07X142VGC/ref=sr_1_3?crid=172A3P41WI48G&amp;dib=eyJ2IjoiMSJ9.SO49a-XNmdH1AGulMpypJWeNKjeeD0wIvVt8lvOcy2owb4pNt_l-CO2Yg_7qfz0QhHS3sAKCQN7Jd1CZCGsRaKrCKf13hkrFzomRuN8LqVOeD5T90BUk-5vHAhjylRzFMlJPveCLddJu3YARKx65G_90vRdv8v0G_CzMKoCj_CoxNB7g7xqZUni9KwxUjQPIqkbGR7PPkdbVjDnmE65NonvagHpU91WH230ehbeL8Yc.gHgwo1bl7tZbjfhDhHUYUAN2QaAMCUANZg-pIDPyGrE&amp;dib_tag=se&amp;keywords=limit+switch&amp;qid=1770448306&amp;sprefix=limit+switch%2Caps%2C262&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>HW-8</t>
+  </si>
+  <si>
+    <t>Tool Pod (22mm flange)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can get it from Pew shop, or search around" Tool Change Pod PCB" </t>
+  </si>
+  <si>
+    <t>can 3D print, PC recommended</t>
+  </si>
+  <si>
+    <t>HW-9</t>
+  </si>
+  <si>
+    <t>Sensor Bracket - for the tool sensor</t>
+  </si>
+  <si>
+    <t>Tool Sensor NPN Laser Photoelectric Diffusion Sensor</t>
+  </si>
+  <si>
+    <t>Bracket High Torque Motor</t>
+  </si>
+  <si>
+    <t>HW-10</t>
+  </si>
+  <si>
+    <t>Top Plate - place to mount motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haven't fully test </t>
+  </si>
+  <si>
+    <t>HW-11</t>
+  </si>
+  <si>
+    <t>ATC Magazine 6 Slots 22mm flange</t>
+  </si>
+  <si>
+    <t>ATC Magazine 6 Slots 22mm flange top cover</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BPH6F74F?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>HW-12</t>
+  </si>
+  <si>
+    <t>20:1 Gear Ration from Stepper online</t>
+  </si>
+  <si>
+    <t>Nema17 Shaft Length 6.5-10.5mm</t>
+  </si>
+  <si>
+    <t>don't have link for this, I just cut my old motor shaft</t>
+  </si>
+  <si>
+    <t>STEP files are in the folder, so it's up to you to decide. This uses the 22mm flange Pod. My own design is different because the part I'm using is difficult to find elsewhere (it's local to me).</t>
+  </si>
+  <si>
+    <t>I source mine from an old 3D printer, so I haven't tested the one from the provided link.</t>
+  </si>
+  <si>
+    <t>3D print or CNC, haven't test fitment of Rev 2</t>
+  </si>
+  <si>
+    <t>85T HTD5 Belt 425mm Length 15mm Width</t>
+  </si>
+  <si>
+    <t>I used 9mm currently, but I recommend the 15mm</t>
+  </si>
+  <si>
+    <r>
+      <t>Important:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> You will need to buy a short-length NEMA motor. Otherwise, buy the motor and gear combo, but those usually have soldered-in wires, so you will need to solder.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -565,112 +624,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BD419C-F7DE-B647-8B79-0F72155F3895}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,52 +815,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD584116-9858-1F4E-A307-792A3F4C7A11}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="79.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>27</v>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <f>IFERROR(
   IF(B3=VLOOKUP(A3, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -736,18 +875,20 @@
 )</f>
         <v>✅ Up to Date</v>
       </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <f>IFERROR(
   IF(B4=VLOOKUP(A4, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -757,21 +898,22 @@
 )</f>
         <v>✅ Up to Date</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f>IFERROR(
   IF(B5=VLOOKUP(A5, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -781,21 +923,22 @@
 )</f>
         <v>✅ Up to Date</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <f>IFERROR(
   IF(B6=VLOOKUP(A6, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -805,18 +948,22 @@
 )</f>
         <v>✅ Up to Date</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="str">
         <f>IFERROR(
   IF(B7=VLOOKUP(A7, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -826,18 +973,22 @@
 )</f>
         <v>✅ Up to Date</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <f>IFERROR(
   IF(B8=VLOOKUP(A8, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -847,18 +998,24 @@
 )</f>
         <v>✅ Up to Date</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <f>IFERROR(
   IF(B9=VLOOKUP(A9, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -868,24 +1025,24 @@
 )</f>
         <v>✅ Up to Date</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <f>IFERROR(
   IF(B10=VLOOKUP(A10, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -893,23 +1050,24 @@
   ),
   "❌ Part Not Found"
 )</f>
-        <v>❌ Part Not Found</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
+        <v>✅ Up to Date</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <f>IFERROR(
   IF(B11=VLOOKUP(A11, PartMaster!A:B, 2, FALSE),
     "✅ Up to Date",
@@ -917,47 +1075,142 @@
   ),
   "❌ Part Not Found"
 )</f>
-        <v>❌ Part Not Found</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
+        <v>✅ Up to Date</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>IFERROR(
+  IF(B12=VLOOKUP(A12, PartMaster!A:B, 2, FALSE),
+    "✅ Up to Date",
+    "⚠️ OUTDATED"
+  ),
+  "❌ Part Not Found"
+)</f>
+        <v>✅ Up to Date</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>IFERROR(
+  IF(B13=VLOOKUP(A13, PartMaster!A:B, 2, FALSE),
+    "✅ Up to Date",
+    "⚠️ OUTDATED"
+  ),
+  "❌ Part Not Found"
+)</f>
+        <v>✅ Up to Date</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>IFERROR(
+  IF(B14=VLOOKUP(A14, PartMaster!A:B, 2, FALSE),
+    "✅ Up to Date",
+    "⚠️ OUTDATED"
+  ),
+  "❌ Part Not Found"
+)</f>
+        <v>✅ Up to Date</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" t="str">
-        <f>IFERROR(
-  IF(B12=VLOOKUP(A12, PartMaster!A:B, 2, FALSE),
-    "✅ Up to Date",
-    "⚠️ OUTDATED"
-  ),
-  "❌ Part Not Found"
-)</f>
-        <v>❌ Part Not Found</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>IFERROR(
+  IF(B15=VLOOKUP(A15, PartMaster!A:B, 2, FALSE),
+    "✅ Up to Date",
+    "⚠️ OUTDATED"
+  ),
+  "❌ Part Not Found"
+)</f>
+        <v>✅ Up to Date</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>IFERROR(
+  IF(B16=VLOOKUP(A16, PartMaster!A:B, 2, FALSE),
+    "✅ Up to Date",
+    "⚠️ OUTDATED"
+  ),
+  "❌ Part Not Found"
+)</f>
+        <v>✅ Up to Date</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -994,19 +1247,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">

--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luonghoang/Documents/Project/Carvera-Air-ATC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647D6C5-55BE-9543-8ED5-B84423213A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41435573-8028-0E4A-AEE0-DE66010F9349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="29480" windowWidth="34560" windowHeight="20540" xr2:uid="{E4CA21F5-D4A9-464D-9F3E-BA0012FF7D2B}"/>
+    <workbookView xWindow="2200" yWindow="29480" windowWidth="34560" windowHeight="20540" activeTab="1" xr2:uid="{E4CA21F5-D4A9-464D-9F3E-BA0012FF7D2B}"/>
   </bookViews>
   <sheets>
     <sheet name="PartMaster" sheetId="3" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BD419C-F7DE-B647-8B79-0F72155F3895}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD584116-9858-1F4E-A307-792A3F4C7A11}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
